--- a/Result/ARIMA/Manufacturing/BRA.xlsx
+++ b/Result/ARIMA/Manufacturing/BRA.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>29.94925716914291</v>
+        <v>-0.529288967552434</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>30.18430948209948</v>
+        <v>29.42001247616147</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>32.25920381119727</v>
+        <v>29.89464042722926</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>31.96205941340536</v>
+        <v>32.55205512531428</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>34.27124671763331</v>
+        <v>31.22516666870552</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>32.47170291984406</v>
+        <v>34.81537143474158</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>30.67637054548271</v>
+        <v>31.11637342876593</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>29.88182258893424</v>
+        <v>29.9919963092875</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>29.978592167725</v>
+        <v>29.31370121858909</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>29.26089572859051</v>
+        <v>29.68365420612123</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>22.82812987817549</v>
+        <v>28.58259904943873</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>21.83906737688613</v>
+        <v>20.2705899520081</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>23.30859761087759</v>
+        <v>21.86261234553722</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>26.04973651086909</v>
+        <v>23.28896833833751</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>23.72123370088062</v>
+        <v>26.49352264895796</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>14.54227915106878</v>
+        <v>22.21480895356137</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>13.06719123672183</v>
+        <v>11.30868932175249</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>13.01862537321251</v>
+        <v>13.1577132528322</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>12.1551371940101</v>
+        <v>12.44031274822257</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>12.3085333305115</v>
+        <v>11.52533372643445</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>13.13465959355212</v>
+        <v>12.05529508140016</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>13.0895379354002</v>
+        <v>12.98580921086145</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>12.35696266737341</v>
+        <v>12.59680974850041</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>14.45076456305325</v>
+        <v>11.74313591568978</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>15.09953015638708</v>
+        <v>14.87582086008655</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>14.73828114102268</v>
+        <v>14.64909096307385</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>14.10894587564269</v>
+        <v>14.24042862028725</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>14.1542648058524</v>
+        <v>13.53331379717346</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>13.95517690387126</v>
+        <v>13.84383954963258</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>13.05946215179974</v>
+        <v>13.46513049526156</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>12.72185960924913</v>
+        <v>12.3871891517242</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>11.78379767126887</v>
+        <v>12.31053037987817</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>10.67594230844642</v>
+        <v>11.06885367799746</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>10.47961229213965</v>
+        <v>10.00816569957801</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>10.33709739950734</v>
+        <v>10.11649191035484</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>10.52093744973542</v>
+        <v>9.885564221737717</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>10.78645112033017</v>
+        <v>10.21559552601952</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -874,13 +874,13 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>10.85105244873844</v>
+        <v>10.45836896661579</v>
       </c>
       <c r="C2" t="n">
-        <v>6.800352156269216</v>
+        <v>6.479396414093365</v>
       </c>
       <c r="D2" t="n">
-        <v>14.90175274120767</v>
+        <v>14.43734151913822</v>
       </c>
     </row>
     <row r="3">
@@ -888,13 +888,13 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>10.85105244873844</v>
+        <v>9.929079999063356</v>
       </c>
       <c r="C3" t="n">
-        <v>3.949731672295353</v>
+        <v>3.236402617418153</v>
       </c>
       <c r="D3" t="n">
-        <v>17.75237322518153</v>
+        <v>16.62175738070856</v>
       </c>
     </row>
     <row r="4">
@@ -902,13 +902,13 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>10.85105244873844</v>
+        <v>9.399791031510922</v>
       </c>
       <c r="C4" t="n">
-        <v>1.971396821445241</v>
+        <v>0.8119136164657021</v>
       </c>
       <c r="D4" t="n">
-        <v>19.73070807603165</v>
+        <v>17.98766844655614</v>
       </c>
     </row>
     <row r="5">
@@ -916,13 +916,13 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>10.85105244873844</v>
+        <v>8.870502063958488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.359706507474538</v>
+        <v>-1.26415858437613</v>
       </c>
       <c r="D5" t="n">
-        <v>21.34239839000235</v>
+        <v>19.00516271229311</v>
       </c>
     </row>
     <row r="6">
@@ -930,13 +930,13 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>10.85105244873844</v>
+        <v>8.341213096406054</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.035427066207491</v>
+        <v>-3.133587747964217</v>
       </c>
       <c r="D6" t="n">
-        <v>22.73753196368438</v>
+        <v>19.81601394077633</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>29.94925716914291</v>
+        <v>-0.4928821105497727</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>30.18430948209948</v>
+        <v>29.45641414072803</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>32.25920381119727</v>
+        <v>29.92012392359427</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>31.96205941340536</v>
+        <v>32.58172637664325</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>34.27124671763331</v>
+        <v>31.25053823064722</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>32.47170291984406</v>
+        <v>34.84576487302078</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>30.67637054548271</v>
+        <v>31.13976368377184</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>29.88182258893424</v>
+        <v>30.01970906489109</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>29.978592167725</v>
+        <v>29.34020642513557</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>29.26089572859051</v>
+        <v>29.7113386829293</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>22.82812987817549</v>
+        <v>28.60881076841233</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>21.83906737688613</v>
+        <v>20.29214582347705</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>23.30859761087759</v>
+        <v>21.89292335748278</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>26.04973651086909</v>
+        <v>23.31606604321668</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>23.72123370088062</v>
+        <v>26.5230325301428</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>14.54227915106878</v>
+        <v>22.23809443057647</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>13.06719123672183</v>
+        <v>11.32941725428726</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>13.01862537321251</v>
+        <v>13.1885013765822</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>12.1551371940101</v>
+        <v>12.46570293184012</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>12.3085333305115</v>
+        <v>11.55248990608618</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>13.13465959355212</v>
+        <v>12.08286434258256</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>13.0895379354002</v>
+        <v>13.01352001033531</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>12.35696266737341</v>
+        <v>12.62352331218713</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>14.45076456305325</v>
+        <v>11.76986837275149</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>15.09953015638708</v>
+        <v>14.90540824174944</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1235,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>14.73828114102268</v>
+        <v>14.67525775964956</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>14.10894587564269</v>
+        <v>14.26767377553485</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>14.1542648058524</v>
+        <v>13.55996357771351</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>13.95517690387126</v>
+        <v>13.87143026905026</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>13.05946215179974</v>
+        <v>13.49189388654357</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>12.72185960924913</v>
+        <v>12.41374300778318</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>11.78379767126887</v>
+        <v>12.3378770625989</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>10.67594230844642</v>
+        <v>11.09508384053756</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>10.47961229213965</v>
+        <v>10.03492040328725</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>10.33709739950734</v>
+        <v>10.14390039746039</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>10.52093744973542</v>
+        <v>9.912498105169069</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>10.78645112033017</v>
+        <v>10.24309983522174</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>10.72149801387266</v>
+        <v>10.48560902875712</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>10.52845738117833</v>
+        <v>10.31198761223299</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>10.33250053589602</v>
+        <v>10.11208352537181</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>9.663418179444509</v>
+        <v>9.917521778193596</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>9.645341701464915</v>
+        <v>9.080726655973058</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1446,13 +1446,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>9.727692579440287</v>
+        <v>9.352014992774846</v>
       </c>
       <c r="C2" t="n">
-        <v>5.926144661186243</v>
+        <v>5.616547057513166</v>
       </c>
       <c r="D2" t="n">
-        <v>13.52924049769433</v>
+        <v>13.08748292803653</v>
       </c>
     </row>
     <row r="3">
@@ -1460,13 +1460,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>9.727692579440287</v>
+        <v>8.859132882225072</v>
       </c>
       <c r="C3" t="n">
-        <v>3.246440426634469</v>
+        <v>2.573116592395944</v>
       </c>
       <c r="D3" t="n">
-        <v>16.20894473224611</v>
+        <v>15.1451491720542</v>
       </c>
     </row>
     <row r="4">
@@ -1474,13 +1474,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>9.727692579440287</v>
+        <v>8.366250771675301</v>
       </c>
       <c r="C4" t="n">
-        <v>1.387339327825675</v>
+        <v>0.2993876330924863</v>
       </c>
       <c r="D4" t="n">
-        <v>18.0680458310549</v>
+        <v>16.43311391025811</v>
       </c>
     </row>
     <row r="5">
@@ -1488,13 +1488,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>9.727692579440287</v>
+        <v>7.873368661125528</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1270704950931041</v>
+        <v>-1.64684987613795</v>
       </c>
       <c r="D5" t="n">
-        <v>19.58245565397368</v>
+        <v>17.39358719838901</v>
       </c>
     </row>
     <row r="6">
@@ -1502,13 +1502,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>9.727692579440287</v>
+        <v>7.380486550575755</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.437934055400019</v>
+        <v>-3.39888453951499</v>
       </c>
       <c r="D6" t="n">
-        <v>20.8933192142806</v>
+        <v>18.1598576406665</v>
       </c>
     </row>
   </sheetData>
